--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2096.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2096.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.878260081465198</v>
+        <v>3.600374698638916</v>
       </c>
       <c r="B1">
-        <v>3.030870140339606</v>
+        <v>2.693195104598999</v>
       </c>
       <c r="C1">
-        <v>2.694740168514341</v>
+        <v>2.26577615737915</v>
       </c>
       <c r="D1">
-        <v>2.963803765913301</v>
+        <v>2.355586528778076</v>
       </c>
       <c r="E1">
-        <v>2.904792691746186</v>
+        <v>2.665621519088745</v>
       </c>
     </row>
   </sheetData>
